--- a/bh3/542712956586567061_2021-07-02_12-03-27.xlsx
+++ b/bh3/542712956586567061_2021-07-02_12-03-27.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -46,8 +48,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -419,6 +422,19 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="50" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="13" max="13"/>
+    <col width="12" customWidth="1" min="15" max="15"/>
+    <col width="20" customWidth="1" min="16" max="16"/>
+    <col width="20" customWidth="1" min="17" max="17"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -539,10 +555,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2021-07-07 11:03:21</t>
-        </is>
+      <c r="H2" s="1" t="n">
+        <v>44384.46065972222</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -618,10 +632,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2021-07-07 09:53:09</t>
-        </is>
+      <c r="H3" s="1" t="n">
+        <v>44384.41190972222</v>
       </c>
       <c r="I3" t="n">
         <v>1</v>
@@ -709,10 +721,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2021-07-07 09:52:58</t>
-        </is>
+      <c r="H4" s="1" t="n">
+        <v>44384.41178240741</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -800,10 +810,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2021-07-07 06:25:30</t>
-        </is>
+      <c r="H5" s="1" t="n">
+        <v>44384.26770833333</v>
       </c>
       <c r="I5" t="n">
         <v>1</v>
@@ -875,10 +883,8 @@
           <t>4854365154</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2021-07-06 17:45:04</t>
-        </is>
+      <c r="H6" s="1" t="n">
+        <v>44383.73962962963</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -969,10 +975,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2021-07-06 09:56:36</t>
-        </is>
+      <c r="H7" s="1" t="n">
+        <v>44383.41430555555</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1056,10 +1060,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2021-07-06 09:51:05</t>
-        </is>
+      <c r="H8" s="1" t="n">
+        <v>44383.41047453704</v>
       </c>
       <c r="I8" t="n">
         <v>1</v>
@@ -1131,10 +1133,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2021-07-06 09:50:38</t>
-        </is>
+      <c r="H9" s="1" t="n">
+        <v>44383.41016203703</v>
       </c>
       <c r="I9" t="n">
         <v>1</v>
@@ -1233,10 +1233,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2021-07-06 07:28:34</t>
-        </is>
+      <c r="H10" s="1" t="n">
+        <v>44383.31150462963</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1312,10 +1310,8 @@
           <t>4830165866</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2021-07-06 03:44:16</t>
-        </is>
+      <c r="H11" s="1" t="n">
+        <v>44383.15574074074</v>
       </c>
       <c r="I11" t="n">
         <v>1</v>
@@ -1383,10 +1379,8 @@
           <t>4847851408</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>2021-07-05 16:30:00</t>
-        </is>
+      <c r="H12" s="1" t="n">
+        <v>44382.6875</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1458,10 +1452,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2021-07-05 07:26:45</t>
-        </is>
+      <c r="H13" s="1" t="n">
+        <v>44382.31024305556</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1545,10 +1537,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>2021-07-05 07:19:07</t>
-        </is>
+      <c r="H14" s="1" t="n">
+        <v>44382.30494212963</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1647,10 +1637,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>2021-07-04 11:50:59</t>
-        </is>
+      <c r="H15" s="1" t="n">
+        <v>44381.49373842592</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1726,10 +1714,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>2021-07-04 07:39:24</t>
-        </is>
+      <c r="H16" s="1" t="n">
+        <v>44381.31902777778</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1813,10 +1799,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>2021-07-04 07:27:25</t>
-        </is>
+      <c r="H17" s="1" t="n">
+        <v>44381.31070601852</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1888,10 +1872,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>2021-07-04 00:53:45</t>
-        </is>
+      <c r="H18" s="1" t="n">
+        <v>44381.03732638889</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1951,10 +1933,8 @@
           <t>4834425622</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>2021-07-03 12:22:08</t>
-        </is>
+      <c r="H19" s="1" t="n">
+        <v>44380.51537037037</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2014,10 +1994,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>2021-07-03 12:21:18</t>
-        </is>
+      <c r="H20" s="1" t="n">
+        <v>44380.51479166667</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2077,10 +2055,8 @@
           <t>4834269016</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>2021-07-03 11:57:13</t>
-        </is>
+      <c r="H21" s="1" t="n">
+        <v>44380.49806712963</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2148,10 +2124,8 @@
           <t>4834267123</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>2021-07-03 11:56:11</t>
-        </is>
+      <c r="H22" s="1" t="n">
+        <v>44380.49734953704</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2219,10 +2193,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>2021-07-03 11:55:52</t>
-        </is>
+      <c r="H23" s="1" t="n">
+        <v>44380.49712962963</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2290,10 +2262,8 @@
           <t>4831707458</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>2021-07-03 09:44:08</t>
-        </is>
+      <c r="H24" s="1" t="n">
+        <v>44380.40564814815</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2363,10 +2333,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>2021-07-03 09:29:39</t>
-        </is>
+      <c r="H25" s="1" t="n">
+        <v>44380.39559027777</v>
       </c>
       <c r="I25" t="n">
         <v>1</v>
@@ -2426,10 +2394,8 @@
           <t>4833265436</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>2021-07-03 07:54:24</t>
-        </is>
+      <c r="H26" s="1" t="n">
+        <v>44380.32944444445</v>
       </c>
       <c r="I26" t="n">
         <v>1</v>
@@ -2509,10 +2475,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>2021-07-03 07:27:12</t>
-        </is>
+      <c r="H27" s="1" t="n">
+        <v>44380.31055555555</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2584,10 +2548,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>2021-07-03 07:19:01</t>
-        </is>
+      <c r="H28" s="1" t="n">
+        <v>44380.30487268518</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2685,10 +2647,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>2021-07-03 07:18:41</t>
-        </is>
+      <c r="H29" s="1" t="n">
+        <v>44380.3046412037</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2756,10 +2716,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>2021-07-03 07:16:33</t>
-        </is>
+      <c r="H30" s="1" t="n">
+        <v>44380.30315972222</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2831,10 +2789,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>2021-07-03 06:42:46</t>
-        </is>
+      <c r="H31" s="1" t="n">
+        <v>44380.27969907408</v>
       </c>
       <c r="I31" t="n">
         <v>1</v>
@@ -2910,10 +2866,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>2021-07-03 06:27:16</t>
-        </is>
+      <c r="H32" s="1" t="n">
+        <v>44380.26893518519</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -2981,10 +2935,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>2021-07-03 04:43:47</t>
-        </is>
+      <c r="H33" s="1" t="n">
+        <v>44380.19707175926</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3044,10 +2996,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>2021-07-03 03:02:02</t>
-        </is>
+      <c r="H34" s="1" t="n">
+        <v>44380.12641203704</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3112,10 +3062,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>2021-07-03 03:01:55</t>
-        </is>
+      <c r="H35" s="1" t="n">
+        <v>44380.12633101852</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3177,10 +3125,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>2021-07-03 03:01:47</t>
-        </is>
+      <c r="H36" s="1" t="n">
+        <v>44380.12623842592</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3240,10 +3186,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>2021-07-03 03:01:33</t>
-        </is>
+      <c r="H37" s="1" t="n">
+        <v>44380.12607638889</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3303,10 +3247,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>2021-07-03 03:01:27</t>
-        </is>
+      <c r="H38" s="1" t="n">
+        <v>44380.12600694445</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3366,10 +3308,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>2021-07-03 01:44:12</t>
-        </is>
+      <c r="H39" s="1" t="n">
+        <v>44380.07236111111</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3448,10 +3388,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>2021-07-03 00:55:26</t>
-        </is>
+      <c r="H40" s="1" t="n">
+        <v>44380.03849537037</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3519,10 +3457,8 @@
           <t>4831846924</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>2021-07-03 00:47:27</t>
-        </is>
+      <c r="H41" s="1" t="n">
+        <v>44380.03295138889</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3598,10 +3534,8 @@
           <t>4831846924</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>2021-07-02 23:16:53</t>
-        </is>
+      <c r="H42" s="1" t="n">
+        <v>44379.97005787037</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3698,10 +3632,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>2021-07-02 23:01:51</t>
-        </is>
+      <c r="H43" s="1" t="n">
+        <v>44379.95961805555</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3777,10 +3709,8 @@
           <t>4831846924</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>2021-07-02 22:42:01</t>
-        </is>
+      <c r="H44" s="1" t="n">
+        <v>44379.94584490741</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -3844,10 +3774,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>2021-07-02 22:32:50</t>
-        </is>
+      <c r="H45" s="1" t="n">
+        <v>44379.93946759259</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -3919,10 +3847,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>2021-07-02 22:25:48</t>
-        </is>
+      <c r="H46" s="1" t="n">
+        <v>44379.93458333334</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -3994,10 +3920,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>2021-07-02 22:21:31</t>
-        </is>
+      <c r="H47" s="1" t="n">
+        <v>44379.93160879629</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
@@ -4069,10 +3993,8 @@
           <t>4831707458</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>2021-07-02 22:20:01</t>
-        </is>
+      <c r="H48" s="1" t="n">
+        <v>44379.93056712963</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
@@ -4144,10 +4066,8 @@
           <t>4831235037</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>2021-07-02 22:14:07</t>
-        </is>
+      <c r="H49" s="1" t="n">
+        <v>44379.9264699074</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
@@ -4215,10 +4135,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>2021-07-02 21:18:45</t>
-        </is>
+      <c r="H50" s="1" t="n">
+        <v>44379.88802083334</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
@@ -4282,10 +4200,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>2021-07-02 21:12:21</t>
-        </is>
+      <c r="H51" s="1" t="n">
+        <v>44379.88357638889</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
@@ -4352,10 +4268,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>2021-07-02 21:09:51</t>
-        </is>
+      <c r="H52" s="1" t="n">
+        <v>44379.88184027778</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
@@ -4419,10 +4333,8 @@
           <t>4831235037</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>2021-07-02 21:03:43</t>
-        </is>
+      <c r="H53" s="1" t="n">
+        <v>44379.87758101852</v>
       </c>
       <c r="I53" t="n">
         <v>5</v>
@@ -4496,10 +4408,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>2021-07-02 20:41:31</t>
-        </is>
+      <c r="H54" s="1" t="n">
+        <v>44379.86216435185</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
@@ -4577,10 +4487,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>2021-07-02 20:41:16</t>
-        </is>
+      <c r="H55" s="1" t="n">
+        <v>44379.86199074074</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
@@ -4670,10 +4578,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>2021-07-02 20:40:42</t>
-        </is>
+      <c r="H56" s="1" t="n">
+        <v>44379.86159722223</v>
       </c>
       <c r="I56" t="n">
         <v>9</v>
@@ -4741,10 +4647,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>2021-07-02 20:16:03</t>
-        </is>
+      <c r="H57" s="1" t="n">
+        <v>44379.84447916667</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
@@ -4804,10 +4708,8 @@
           <t>4830766224</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>2021-07-02 19:46:51</t>
-        </is>
+      <c r="H58" s="1" t="n">
+        <v>44379.82420138889</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
@@ -4875,10 +4777,8 @@
           <t>4830165866</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>2021-07-02 18:47:52</t>
-        </is>
+      <c r="H59" s="1" t="n">
+        <v>44379.78324074074</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
@@ -4950,10 +4850,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>2021-07-02 18:43:47</t>
-        </is>
+      <c r="H60" s="1" t="n">
+        <v>44379.78040509259</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
@@ -5017,10 +4915,8 @@
           <t>4830165866</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>2021-07-02 18:09:21</t>
-        </is>
+      <c r="H61" s="1" t="n">
+        <v>44379.75649305555</v>
       </c>
       <c r="I61" t="n">
         <v>2</v>
@@ -5094,10 +4990,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>2021-07-02 17:58:27</t>
-        </is>
+      <c r="H62" s="1" t="n">
+        <v>44379.74892361111</v>
       </c>
       <c r="I62" t="n">
         <v>4</v>
@@ -5157,10 +5051,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>2021-07-02 16:19:30</t>
-        </is>
+      <c r="H63" s="1" t="n">
+        <v>44379.68020833333</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
@@ -5238,10 +5130,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>2021-07-02 16:07:29</t>
-        </is>
+      <c r="H64" s="1" t="n">
+        <v>44379.67186342592</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
@@ -5309,10 +5199,8 @@
           <t>4829539252</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>2021-07-02 16:02:40</t>
-        </is>
+      <c r="H65" s="1" t="n">
+        <v>44379.66851851852</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
@@ -5380,10 +5268,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>2021-07-02 15:57:03</t>
-        </is>
+      <c r="H66" s="1" t="n">
+        <v>44379.66461805555</v>
       </c>
       <c r="I66" t="n">
         <v>1</v>
@@ -5459,10 +5345,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>2021-07-02 15:54:26</t>
-        </is>
+      <c r="H67" s="1" t="n">
+        <v>44379.66280092593</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
@@ -5530,10 +5414,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>2021-07-02 15:51:11</t>
-        </is>
+      <c r="H68" s="1" t="n">
+        <v>44379.66054398148</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
@@ -5609,10 +5491,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>2021-07-02 15:38:30</t>
-        </is>
+      <c r="H69" s="1" t="n">
+        <v>44379.65173611111</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
@@ -5680,10 +5560,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>2021-07-02 15:21:38</t>
-        </is>
+      <c r="H70" s="1" t="n">
+        <v>44379.64002314815</v>
       </c>
       <c r="I70" t="n">
         <v>2</v>
@@ -5748,10 +5626,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>2021-07-02 15:21:25</t>
-        </is>
+      <c r="H71" s="1" t="n">
+        <v>44379.63987268518</v>
       </c>
       <c r="I71" t="n">
         <v>1</v>
@@ -5813,10 +5689,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>2021-07-02 15:21:16</t>
-        </is>
+      <c r="H72" s="1" t="n">
+        <v>44379.63976851852</v>
       </c>
       <c r="I72" t="n">
         <v>1</v>
@@ -5876,10 +5750,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>2021-07-02 15:21:10</t>
-        </is>
+      <c r="H73" s="1" t="n">
+        <v>44379.63969907408</v>
       </c>
       <c r="I73" t="n">
         <v>1</v>
@@ -5939,10 +5811,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>2021-07-02 15:21:05</t>
-        </is>
+      <c r="H74" s="1" t="n">
+        <v>44379.63964120371</v>
       </c>
       <c r="I74" t="n">
         <v>1</v>
@@ -6002,10 +5872,8 @@
           <t>4828557563</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>2021-07-02 15:18:57</t>
-        </is>
+      <c r="H75" s="1" t="n">
+        <v>44379.63815972222</v>
       </c>
       <c r="I75" t="n">
         <v>1</v>
@@ -6081,10 +5949,8 @@
           <t>4829360056</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>2021-07-02 15:17:31</t>
-        </is>
+      <c r="H76" s="1" t="n">
+        <v>44379.63716435185</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
@@ -6161,10 +6027,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>2021-07-02 15:13:44</t>
-        </is>
+      <c r="H77" s="1" t="n">
+        <v>44379.63453703704</v>
       </c>
       <c r="I77" t="n">
         <v>3</v>
@@ -6240,10 +6104,8 @@
           <t>4829324992</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>2021-07-02 15:10:21</t>
-        </is>
+      <c r="H78" s="1" t="n">
+        <v>44379.6321875</v>
       </c>
       <c r="I78" t="n">
         <v>7</v>
@@ -6307,10 +6169,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>2021-07-02 15:01:05</t>
-        </is>
+      <c r="H79" s="1" t="n">
+        <v>44379.62575231482</v>
       </c>
       <c r="I79" t="n">
         <v>3</v>
@@ -6374,10 +6234,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>2021-07-02 14:48:25</t>
-        </is>
+      <c r="H80" s="1" t="n">
+        <v>44379.61695601852</v>
       </c>
       <c r="I80" t="n">
         <v>4</v>
@@ -6445,10 +6303,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>2021-07-02 14:45:05</t>
-        </is>
+      <c r="H81" s="1" t="n">
+        <v>44379.61464120371</v>
       </c>
       <c r="I81" t="n">
         <v>4</v>
@@ -6516,10 +6372,8 @@
           <t>4829198107</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>2021-07-02 14:39:39</t>
-        </is>
+      <c r="H82" s="1" t="n">
+        <v>44379.61086805556</v>
       </c>
       <c r="I82" t="n">
         <v>1</v>
@@ -6591,10 +6445,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>2021-07-02 14:32:36</t>
-        </is>
+      <c r="H83" s="1" t="n">
+        <v>44379.60597222222</v>
       </c>
       <c r="I83" t="n">
         <v>2</v>
@@ -6658,10 +6510,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>2021-07-02 14:25:54</t>
-        </is>
+      <c r="H84" s="1" t="n">
+        <v>44379.60131944445</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
@@ -6733,10 +6583,8 @@
           <t>4829107518</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>2021-07-02 14:17:19</t>
-        </is>
+      <c r="H85" s="1" t="n">
+        <v>44379.59535879629</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
@@ -6800,10 +6648,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>2021-07-02 14:16:43</t>
-        </is>
+      <c r="H86" s="1" t="n">
+        <v>44379.59494212963</v>
       </c>
       <c r="I86" t="n">
         <v>3</v>
@@ -6867,10 +6713,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>2021-07-02 14:16:04</t>
-        </is>
+      <c r="H87" s="1" t="n">
+        <v>44379.59449074074</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
@@ -6942,10 +6786,8 @@
           <t>4828521014</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>2021-07-02 14:06:26</t>
-        </is>
+      <c r="H88" s="1" t="n">
+        <v>44379.58780092592</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
@@ -7013,10 +6855,8 @@
           <t>4829059707</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>2021-07-02 14:05:27</t>
-        </is>
+      <c r="H89" s="1" t="n">
+        <v>44379.58711805556</v>
       </c>
       <c r="I89" t="n">
         <v>3</v>
@@ -7084,10 +6924,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>2021-07-02 13:57:25</t>
-        </is>
+      <c r="H90" s="1" t="n">
+        <v>44379.58153935185</v>
       </c>
       <c r="I90" t="n">
         <v>7</v>
@@ -7185,10 +7023,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>2021-07-02 13:57:22</t>
-        </is>
+      <c r="H91" s="1" t="n">
+        <v>44379.58150462963</v>
       </c>
       <c r="I91" t="n">
         <v>5</v>
@@ -7256,10 +7092,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>2021-07-02 13:56:54</t>
-        </is>
+      <c r="H92" s="1" t="n">
+        <v>44379.58118055556</v>
       </c>
       <c r="I92" t="n">
         <v>5</v>
@@ -7327,10 +7161,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>2021-07-02 13:47:06</t>
-        </is>
+      <c r="H93" s="1" t="n">
+        <v>44379.574375</v>
       </c>
       <c r="I93" t="n">
         <v>3</v>
@@ -7402,10 +7234,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>2021-07-02 13:45:02</t>
-        </is>
+      <c r="H94" s="1" t="n">
+        <v>44379.57293981482</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
@@ -7469,10 +7299,8 @@
           <t>4828557563</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>2021-07-02 13:42:04</t>
-        </is>
+      <c r="H95" s="1" t="n">
+        <v>44379.57087962963</v>
       </c>
       <c r="I95" t="n">
         <v>5</v>
@@ -7552,10 +7380,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>2021-07-02 13:41:07</t>
-        </is>
+      <c r="H96" s="1" t="n">
+        <v>44379.57021990741</v>
       </c>
       <c r="I96" t="n">
         <v>4</v>
@@ -7619,10 +7445,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>2021-07-02 13:39:26</t>
-        </is>
+      <c r="H97" s="1" t="n">
+        <v>44379.56905092593</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
@@ -7694,10 +7518,8 @@
           <t>4828946294</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>2021-07-02 13:38:57</t>
-        </is>
+      <c r="H98" s="1" t="n">
+        <v>44379.56871527778</v>
       </c>
       <c r="I98" t="n">
         <v>1</v>
@@ -7765,10 +7587,8 @@
           <t>4828918641</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>2021-07-02 13:34:04</t>
-        </is>
+      <c r="H99" s="1" t="n">
+        <v>44379.56532407407</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
@@ -7836,10 +7656,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>2021-07-02 13:34:02</t>
-        </is>
+      <c r="H100" s="1" t="n">
+        <v>44379.56530092593</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
@@ -7899,10 +7717,8 @@
           <t>4828903740</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>2021-07-02 13:30:59</t>
-        </is>
+      <c r="H101" s="1" t="n">
+        <v>44379.56318287037</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
@@ -7966,10 +7782,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>2021-07-02 13:25:21</t>
-        </is>
+      <c r="H102" s="1" t="n">
+        <v>44379.55927083334</v>
       </c>
       <c r="I102" t="n">
         <v>1</v>
@@ -8037,10 +7851,8 @@
           <t>4828816966</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>2021-07-02 13:23:14</t>
-        </is>
+      <c r="H103" s="1" t="n">
+        <v>44379.55780092593</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
@@ -8104,10 +7916,8 @@
           <t>4828865812</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>2021-07-02 13:21:00</t>
-        </is>
+      <c r="H104" s="1" t="n">
+        <v>44379.55625</v>
       </c>
       <c r="I104" t="n">
         <v>1</v>
@@ -8183,10 +7993,8 @@
           <t>4828856797</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>2021-07-02 13:20:41</t>
-        </is>
+      <c r="H105" s="1" t="n">
+        <v>44379.55603009259</v>
       </c>
       <c r="I105" t="n">
         <v>4</v>
@@ -8258,10 +8066,8 @@
           <t>4828816966</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>2021-07-02 13:20:21</t>
-        </is>
+      <c r="H106" s="1" t="n">
+        <v>44379.55579861111</v>
       </c>
       <c r="I106" t="n">
         <v>1</v>
@@ -8338,10 +8144,8 @@
           <t>4828841208</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>2021-07-02 13:17:25</t>
-        </is>
+      <c r="H107" s="1" t="n">
+        <v>44379.55376157408</v>
       </c>
       <c r="I107" t="n">
         <v>1</v>
@@ -8410,10 +8214,8 @@
           <t>4828836425</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>2021-07-02 13:15:34</t>
-        </is>
+      <c r="H108" s="1" t="n">
+        <v>44379.55247685185</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
@@ -8481,10 +8283,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>2021-07-02 13:12:49</t>
-        </is>
+      <c r="H109" s="1" t="n">
+        <v>44379.55056712963</v>
       </c>
       <c r="I109" t="n">
         <v>68</v>
@@ -8556,10 +8356,8 @@
           <t>4828816966</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>2021-07-02 13:12:26</t>
-        </is>
+      <c r="H110" s="1" t="n">
+        <v>44379.55030092593</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
@@ -8623,10 +8421,8 @@
           <t>4828815078</t>
         </is>
       </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>2021-07-02 13:11:17</t>
-        </is>
+      <c r="H111" s="1" t="n">
+        <v>44379.54950231482</v>
       </c>
       <c r="I111" t="n">
         <v>1</v>
@@ -8702,10 +8498,8 @@
           <t>4828557563</t>
         </is>
       </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>2021-07-02 13:10:18</t>
-        </is>
+      <c r="H112" s="1" t="n">
+        <v>44379.54881944445</v>
       </c>
       <c r="I112" t="n">
         <v>1</v>
@@ -8781,10 +8575,8 @@
           <t>4828556187</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>2021-07-02 13:10:15</t>
-        </is>
+      <c r="H113" s="1" t="n">
+        <v>44379.54878472222</v>
       </c>
       <c r="I113" t="n">
         <v>5</v>
@@ -8852,10 +8644,8 @@
           <t>4828806695</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>2021-07-02 13:09:59</t>
-        </is>
+      <c r="H114" s="1" t="n">
+        <v>44379.54859953704</v>
       </c>
       <c r="I114" t="n">
         <v>2</v>
@@ -8931,10 +8721,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>2021-07-02 13:09:44</t>
-        </is>
+      <c r="H115" s="1" t="n">
+        <v>44379.54842592592</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
@@ -8998,10 +8786,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>2021-07-02 13:07:16</t>
-        </is>
+      <c r="H116" s="1" t="n">
+        <v>44379.54671296296</v>
       </c>
       <c r="I116" t="n">
         <v>1</v>
@@ -9077,10 +8863,8 @@
           <t>4828768582</t>
         </is>
       </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>2021-07-02 13:05:01</t>
-        </is>
+      <c r="H117" s="1" t="n">
+        <v>44379.54515046296</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
@@ -9152,10 +8936,8 @@
           <t>4828768582</t>
         </is>
       </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>2021-07-02 13:04:22</t>
-        </is>
+      <c r="H118" s="1" t="n">
+        <v>44379.54469907407</v>
       </c>
       <c r="I118" t="n">
         <v>10</v>
@@ -9223,10 +9005,8 @@
           <t>4828772773</t>
         </is>
       </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>2021-07-02 13:03:59</t>
-        </is>
+      <c r="H119" s="1" t="n">
+        <v>44379.54443287037</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
@@ -9290,10 +9070,8 @@
           <t>4828763409</t>
         </is>
       </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>2021-07-02 13:02:46</t>
-        </is>
+      <c r="H120" s="1" t="n">
+        <v>44379.54358796297</v>
       </c>
       <c r="I120" t="n">
         <v>8</v>
@@ -9357,10 +9135,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>2021-07-02 13:01:06</t>
-        </is>
+      <c r="H121" s="1" t="n">
+        <v>44379.54243055556</v>
       </c>
       <c r="I121" t="n">
         <v>6</v>
@@ -9436,10 +9212,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>2021-07-02 13:00:46</t>
-        </is>
+      <c r="H122" s="1" t="n">
+        <v>44379.54219907407</v>
       </c>
       <c r="I122" t="n">
         <v>4</v>
@@ -9503,10 +9277,8 @@
           <t>4828748041</t>
         </is>
       </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>2021-07-02 12:59:56</t>
-        </is>
+      <c r="H123" s="1" t="n">
+        <v>44379.54162037037</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
@@ -9578,10 +9350,8 @@
           <t>4828744801</t>
         </is>
       </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>2021-07-02 12:59:42</t>
-        </is>
+      <c r="H124" s="1" t="n">
+        <v>44379.54145833333</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
@@ -9645,10 +9415,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>2021-07-02 12:58:53</t>
-        </is>
+      <c r="H125" s="1" t="n">
+        <v>44379.5408912037</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
@@ -9724,10 +9492,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>2021-07-02 12:58:00</t>
-        </is>
+      <c r="H126" s="1" t="n">
+        <v>44379.54027777778</v>
       </c>
       <c r="I126" t="n">
         <v>4</v>
@@ -9795,10 +9561,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>2021-07-02 12:57:58</t>
-        </is>
+      <c r="H127" s="1" t="n">
+        <v>44379.54025462963</v>
       </c>
       <c r="I127" t="n">
         <v>3</v>
@@ -9874,10 +9638,8 @@
           <t>4828625459</t>
         </is>
       </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>2021-07-02 12:57:00</t>
-        </is>
+      <c r="H128" s="1" t="n">
+        <v>44379.53958333333</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
@@ -9953,10 +9715,8 @@
           <t>4828718284</t>
         </is>
       </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>2021-07-02 12:54:54</t>
-        </is>
+      <c r="H129" s="1" t="n">
+        <v>44379.538125</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
@@ -10032,10 +9792,8 @@
           <t>4828712577</t>
         </is>
       </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>2021-07-02 12:53:16</t>
-        </is>
+      <c r="H130" s="1" t="n">
+        <v>44379.53699074074</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
@@ -10111,10 +9869,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>2021-07-02 12:51:42</t>
-        </is>
+      <c r="H131" s="1" t="n">
+        <v>44379.53590277778</v>
       </c>
       <c r="I131" t="n">
         <v>18</v>
@@ -10190,10 +9946,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>2021-07-02 12:49:55</t>
-        </is>
+      <c r="H132" s="1" t="n">
+        <v>44379.53466435185</v>
       </c>
       <c r="I132" t="n">
         <v>11</v>
@@ -10261,10 +10015,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>2021-07-02 12:49:33</t>
-        </is>
+      <c r="H133" s="1" t="n">
+        <v>44379.53440972222</v>
       </c>
       <c r="I133" t="n">
         <v>11</v>
@@ -10328,10 +10080,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>2021-07-02 12:49:20</t>
-        </is>
+      <c r="H134" s="1" t="n">
+        <v>44379.53425925926</v>
       </c>
       <c r="I134" t="n">
         <v>1</v>
@@ -10409,10 +10159,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>2021-07-02 12:49:02</t>
-        </is>
+      <c r="H135" s="1" t="n">
+        <v>44379.53405092593</v>
       </c>
       <c r="I135" t="n">
         <v>3</v>
@@ -10484,10 +10232,8 @@
           <t>4828683546</t>
         </is>
       </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>2021-07-02 12:48:35</t>
-        </is>
+      <c r="H136" s="1" t="n">
+        <v>44379.53373842593</v>
       </c>
       <c r="I136" t="n">
         <v>4</v>
@@ -10563,10 +10309,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>2021-07-02 12:48:33</t>
-        </is>
+      <c r="H137" s="1" t="n">
+        <v>44379.53371527778</v>
       </c>
       <c r="I137" t="n">
         <v>6</v>
@@ -10626,10 +10370,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>2021-07-02 12:47:36</t>
-        </is>
+      <c r="H138" s="1" t="n">
+        <v>44379.53305555556</v>
       </c>
       <c r="I138" t="n">
         <v>15</v>
@@ -10697,10 +10439,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>2021-07-02 12:47:34</t>
-        </is>
+      <c r="H139" s="1" t="n">
+        <v>44379.53303240741</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
@@ -10769,10 +10509,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>2021-07-02 12:47:31</t>
-        </is>
+      <c r="H140" s="1" t="n">
+        <v>44379.53299768519</v>
       </c>
       <c r="I140" t="n">
         <v>21</v>
@@ -10840,10 +10578,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>2021-07-02 12:43:58</t>
-        </is>
+      <c r="H141" s="1" t="n">
+        <v>44379.53053240741</v>
       </c>
       <c r="I141" t="n">
         <v>7</v>
@@ -10907,10 +10643,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>2021-07-02 12:42:53</t>
-        </is>
+      <c r="H142" s="1" t="n">
+        <v>44379.52978009259</v>
       </c>
       <c r="I142" t="n">
         <v>3</v>
@@ -10978,10 +10712,8 @@
           <t>4828557563</t>
         </is>
       </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>2021-07-02 12:42:36</t>
-        </is>
+      <c r="H143" s="1" t="n">
+        <v>44379.52958333334</v>
       </c>
       <c r="I143" t="n">
         <v>1</v>
@@ -11045,10 +10777,8 @@
           <t>4828648258</t>
         </is>
       </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>2021-07-02 12:42:09</t>
-        </is>
+      <c r="H144" s="1" t="n">
+        <v>44379.52927083334</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
@@ -11124,10 +10854,8 @@
           <t>4828643020</t>
         </is>
       </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>2021-07-02 12:41:23</t>
-        </is>
+      <c r="H145" s="1" t="n">
+        <v>44379.52873842593</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
@@ -11203,10 +10931,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>2021-07-02 12:40:25</t>
-        </is>
+      <c r="H146" s="1" t="n">
+        <v>44379.52806712963</v>
       </c>
       <c r="I146" t="n">
         <v>1</v>
@@ -11282,10 +11008,8 @@
           <t>4828641083</t>
         </is>
       </c>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>2021-07-02 12:40:19</t>
-        </is>
+      <c r="H147" s="1" t="n">
+        <v>44379.52799768518</v>
       </c>
       <c r="I147" t="n">
         <v>0</v>
@@ -11350,10 +11074,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t>2021-07-02 12:40:02</t>
-        </is>
+      <c r="H148" s="1" t="n">
+        <v>44379.52780092593</v>
       </c>
       <c r="I148" t="n">
         <v>192</v>
@@ -11425,10 +11147,8 @@
           <t>4828629752</t>
         </is>
       </c>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t>2021-07-02 12:39:36</t>
-        </is>
+      <c r="H149" s="1" t="n">
+        <v>44379.5275</v>
       </c>
       <c r="I149" t="n">
         <v>1</v>
@@ -11492,10 +11212,8 @@
           <t>4828593078</t>
         </is>
       </c>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>2021-07-02 12:39:20</t>
-        </is>
+      <c r="H150" s="1" t="n">
+        <v>44379.52731481481</v>
       </c>
       <c r="I150" t="n">
         <v>0</v>
@@ -11563,10 +11281,8 @@
           <t>4828631136</t>
         </is>
       </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>2021-07-02 12:38:34</t>
-        </is>
+      <c r="H151" s="1" t="n">
+        <v>44379.52678240741</v>
       </c>
       <c r="I151" t="n">
         <v>0</v>
@@ -11642,10 +11358,8 @@
           <t>4828630005</t>
         </is>
       </c>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t>2021-07-02 12:38:00</t>
-        </is>
+      <c r="H152" s="1" t="n">
+        <v>44379.52638888889</v>
       </c>
       <c r="I152" t="n">
         <v>0</v>
@@ -11721,10 +11435,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>2021-07-02 12:37:28</t>
-        </is>
+      <c r="H153" s="1" t="n">
+        <v>44379.52601851852</v>
       </c>
       <c r="I153" t="n">
         <v>0</v>
@@ -11788,10 +11500,8 @@
           <t>4828625459</t>
         </is>
       </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>2021-07-02 12:37:15</t>
-        </is>
+      <c r="H154" s="1" t="n">
+        <v>44379.52586805556</v>
       </c>
       <c r="I154" t="n">
         <v>0</v>
@@ -11855,10 +11565,8 @@
           <t>4828557563</t>
         </is>
       </c>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>2021-07-02 12:37:08</t>
-        </is>
+      <c r="H155" s="1" t="n">
+        <v>44379.52578703704</v>
       </c>
       <c r="I155" t="n">
         <v>2</v>
@@ -11930,10 +11638,8 @@
           <t>4828593078</t>
         </is>
       </c>
-      <c r="H156" t="inlineStr">
-        <is>
-          <t>2021-07-02 12:36:25</t>
-        </is>
+      <c r="H156" s="1" t="n">
+        <v>44379.52528935186</v>
       </c>
       <c r="I156" t="n">
         <v>0</v>
@@ -12005,10 +11711,8 @@
           <t>4828612679</t>
         </is>
       </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t>2021-07-02 12:35:45</t>
-        </is>
+      <c r="H157" s="1" t="n">
+        <v>44379.52482638889</v>
       </c>
       <c r="I157" t="n">
         <v>0</v>
@@ -12076,10 +11780,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>2021-07-02 12:35:23</t>
-        </is>
+      <c r="H158" s="1" t="n">
+        <v>44379.52457175926</v>
       </c>
       <c r="I158" t="n">
         <v>10</v>
@@ -12143,10 +11845,8 @@
           <t>4828604346</t>
         </is>
       </c>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t>2021-07-02 12:35:17</t>
-        </is>
+      <c r="H159" s="1" t="n">
+        <v>44379.52450231482</v>
       </c>
       <c r="I159" t="n">
         <v>3</v>
@@ -12210,10 +11910,8 @@
           <t>4828593078</t>
         </is>
       </c>
-      <c r="H160" t="inlineStr">
-        <is>
-          <t>2021-07-02 12:34:49</t>
-        </is>
+      <c r="H160" s="1" t="n">
+        <v>44379.52417824074</v>
       </c>
       <c r="I160" t="n">
         <v>1</v>
@@ -12289,10 +11987,8 @@
           <t>4828598800</t>
         </is>
       </c>
-      <c r="H161" t="inlineStr">
-        <is>
-          <t>2021-07-02 12:33:33</t>
-        </is>
+      <c r="H161" s="1" t="n">
+        <v>44379.52329861111</v>
       </c>
       <c r="I161" t="n">
         <v>2</v>
@@ -12364,10 +12060,8 @@
           <t>4828598368</t>
         </is>
       </c>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t>2021-07-02 12:33:19</t>
-        </is>
+      <c r="H162" s="1" t="n">
+        <v>44379.52313657408</v>
       </c>
       <c r="I162" t="n">
         <v>0</v>
@@ -12439,10 +12133,8 @@
           <t>4828598266</t>
         </is>
       </c>
-      <c r="H163" t="inlineStr">
-        <is>
-          <t>2021-07-02 12:33:16</t>
-        </is>
+      <c r="H163" s="1" t="n">
+        <v>44379.52310185185</v>
       </c>
       <c r="I163" t="n">
         <v>0</v>
@@ -12514,10 +12206,8 @@
           <t>4828593088</t>
         </is>
       </c>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t>2021-07-02 12:33:12</t>
-        </is>
+      <c r="H164" s="1" t="n">
+        <v>44379.52305555555</v>
       </c>
       <c r="I164" t="n">
         <v>0</v>
@@ -12595,10 +12285,8 @@
           <t>4828593078</t>
         </is>
       </c>
-      <c r="H165" t="inlineStr">
-        <is>
-          <t>2021-07-02 12:33:12</t>
-        </is>
+      <c r="H165" s="1" t="n">
+        <v>44379.52305555555</v>
       </c>
       <c r="I165" t="n">
         <v>2</v>
@@ -12666,10 +12354,8 @@
           <t>4828589879</t>
         </is>
       </c>
-      <c r="H166" t="inlineStr">
-        <is>
-          <t>2021-07-02 12:33:04</t>
-        </is>
+      <c r="H166" s="1" t="n">
+        <v>44379.52296296296</v>
       </c>
       <c r="I166" t="n">
         <v>0</v>
@@ -12741,10 +12427,8 @@
           <t>4828597222</t>
         </is>
       </c>
-      <c r="H167" t="inlineStr">
-        <is>
-          <t>2021-07-02 12:32:46</t>
-        </is>
+      <c r="H167" s="1" t="n">
+        <v>44379.52275462963</v>
       </c>
       <c r="I167" t="n">
         <v>0</v>
@@ -12822,10 +12506,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H168" t="inlineStr">
-        <is>
-          <t>2021-07-02 12:32:39</t>
-        </is>
+      <c r="H168" s="1" t="n">
+        <v>44379.52267361111</v>
       </c>
       <c r="I168" t="n">
         <v>0</v>
@@ -12897,10 +12579,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H169" t="inlineStr">
-        <is>
-          <t>2021-07-02 12:32:38</t>
-        </is>
+      <c r="H169" s="1" t="n">
+        <v>44379.52266203704</v>
       </c>
       <c r="I169" t="n">
         <v>1</v>
@@ -12976,10 +12656,8 @@
           <t>4828557563</t>
         </is>
       </c>
-      <c r="H170" t="inlineStr">
-        <is>
-          <t>2021-07-02 12:32:11</t>
-        </is>
+      <c r="H170" s="1" t="n">
+        <v>44379.52234953704</v>
       </c>
       <c r="I170" t="n">
         <v>2</v>
@@ -13047,10 +12725,8 @@
           <t>4828595846</t>
         </is>
       </c>
-      <c r="H171" t="inlineStr">
-        <is>
-          <t>2021-07-02 12:32:05</t>
-        </is>
+      <c r="H171" s="1" t="n">
+        <v>44379.52228009259</v>
       </c>
       <c r="I171" t="n">
         <v>3</v>
@@ -13126,10 +12802,8 @@
           <t>4828579893</t>
         </is>
       </c>
-      <c r="H172" t="inlineStr">
-        <is>
-          <t>2021-07-02 12:31:25</t>
-        </is>
+      <c r="H172" s="1" t="n">
+        <v>44379.52181712963</v>
       </c>
       <c r="I172" t="n">
         <v>0</v>
@@ -13205,10 +12879,8 @@
           <t>4828452446</t>
         </is>
       </c>
-      <c r="H173" t="inlineStr">
-        <is>
-          <t>2021-07-02 12:31:17</t>
-        </is>
+      <c r="H173" s="1" t="n">
+        <v>44379.52172453704</v>
       </c>
       <c r="I173" t="n">
         <v>0</v>
@@ -13284,10 +12956,8 @@
           <t>4828583533</t>
         </is>
       </c>
-      <c r="H174" t="inlineStr">
-        <is>
-          <t>2021-07-02 12:30:57</t>
-        </is>
+      <c r="H174" s="1" t="n">
+        <v>44379.52149305555</v>
       </c>
       <c r="I174" t="n">
         <v>2</v>
@@ -13359,10 +13029,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>2021-07-02 12:30:14</t>
-        </is>
+      <c r="H175" s="1" t="n">
+        <v>44379.52099537037</v>
       </c>
       <c r="I175" t="n">
         <v>5</v>
@@ -13434,10 +13102,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>2021-07-02 12:30:04</t>
-        </is>
+      <c r="H176" s="1" t="n">
+        <v>44379.52087962963</v>
       </c>
       <c r="I176" t="n">
         <v>4</v>
@@ -13505,10 +13171,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H177" t="inlineStr">
-        <is>
-          <t>2021-07-02 12:29:22</t>
-        </is>
+      <c r="H177" s="1" t="n">
+        <v>44379.52039351852</v>
       </c>
       <c r="I177" t="n">
         <v>8</v>
@@ -13576,10 +13240,8 @@
           <t>4828556187</t>
         </is>
       </c>
-      <c r="H178" t="inlineStr">
-        <is>
-          <t>2021-07-02 12:27:52</t>
-        </is>
+      <c r="H178" s="1" t="n">
+        <v>44379.51935185185</v>
       </c>
       <c r="I178" t="n">
         <v>13</v>
@@ -13651,10 +13313,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t>2021-07-02 12:27:48</t>
-        </is>
+      <c r="H179" s="1" t="n">
+        <v>44379.51930555556</v>
       </c>
       <c r="I179" t="n">
         <v>0</v>
@@ -13726,10 +13386,8 @@
           <t>4828557563</t>
         </is>
       </c>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t>2021-07-02 12:26:57</t>
-        </is>
+      <c r="H180" s="1" t="n">
+        <v>44379.51871527778</v>
       </c>
       <c r="I180" t="n">
         <v>40</v>
@@ -13805,10 +13463,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>2021-07-02 12:26:35</t>
-        </is>
+      <c r="H181" s="1" t="n">
+        <v>44379.51846064815</v>
       </c>
       <c r="I181" t="n">
         <v>0</v>
@@ -13876,10 +13532,8 @@
           <t>4828556187</t>
         </is>
       </c>
-      <c r="H182" t="inlineStr">
-        <is>
-          <t>2021-07-02 12:26:17</t>
-        </is>
+      <c r="H182" s="1" t="n">
+        <v>44379.51825231482</v>
       </c>
       <c r="I182" t="n">
         <v>5</v>
@@ -13955,10 +13609,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H183" t="inlineStr">
-        <is>
-          <t>2021-07-02 12:25:58</t>
-        </is>
+      <c r="H183" s="1" t="n">
+        <v>44379.51803240741</v>
       </c>
       <c r="I183" t="n">
         <v>7</v>
@@ -14034,10 +13686,8 @@
           <t>4828555147</t>
         </is>
       </c>
-      <c r="H184" t="inlineStr">
-        <is>
-          <t>2021-07-02 12:25:45</t>
-        </is>
+      <c r="H184" s="1" t="n">
+        <v>44379.51788194444</v>
       </c>
       <c r="I184" t="n">
         <v>1</v>
@@ -14109,10 +13759,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H185" t="inlineStr">
-        <is>
-          <t>2021-07-02 12:25:21</t>
-        </is>
+      <c r="H185" s="1" t="n">
+        <v>44379.51760416666</v>
       </c>
       <c r="I185" t="n">
         <v>9</v>
@@ -14185,10 +13833,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H186" t="inlineStr">
-        <is>
-          <t>2021-07-02 12:23:10</t>
-        </is>
+      <c r="H186" s="1" t="n">
+        <v>44379.51608796296</v>
       </c>
       <c r="I186" t="n">
         <v>4</v>
@@ -14264,10 +13910,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H187" t="inlineStr">
-        <is>
-          <t>2021-07-02 12:22:49</t>
-        </is>
+      <c r="H187" s="1" t="n">
+        <v>44379.51584490741</v>
       </c>
       <c r="I187" t="n">
         <v>0</v>
@@ -14339,10 +13983,8 @@
           <t>4828530227</t>
         </is>
       </c>
-      <c r="H188" t="inlineStr">
-        <is>
-          <t>2021-07-02 12:22:21</t>
-        </is>
+      <c r="H188" s="1" t="n">
+        <v>44379.51552083333</v>
       </c>
       <c r="I188" t="n">
         <v>0</v>
@@ -14406,10 +14048,8 @@
           <t>4828533144</t>
         </is>
       </c>
-      <c r="H189" t="inlineStr">
-        <is>
-          <t>2021-07-02 12:22:15</t>
-        </is>
+      <c r="H189" s="1" t="n">
+        <v>44379.51545138889</v>
       </c>
       <c r="I189" t="n">
         <v>1</v>
@@ -14473,10 +14113,8 @@
           <t>4828527335</t>
         </is>
       </c>
-      <c r="H190" t="inlineStr">
-        <is>
-          <t>2021-07-02 12:21:44</t>
-        </is>
+      <c r="H190" s="1" t="n">
+        <v>44379.51509259259</v>
       </c>
       <c r="I190" t="n">
         <v>1</v>
@@ -14561,10 +14199,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H191" t="inlineStr">
-        <is>
-          <t>2021-07-02 12:21:26</t>
-        </is>
+      <c r="H191" s="1" t="n">
+        <v>44379.51488425926</v>
       </c>
       <c r="I191" t="n">
         <v>9</v>
@@ -14636,10 +14272,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H192" t="inlineStr">
-        <is>
-          <t>2021-07-02 12:21:18</t>
-        </is>
+      <c r="H192" s="1" t="n">
+        <v>44379.51479166667</v>
       </c>
       <c r="I192" t="n">
         <v>11</v>
@@ -14711,10 +14345,8 @@
           <t>4828530227</t>
         </is>
       </c>
-      <c r="H193" t="inlineStr">
-        <is>
-          <t>2021-07-02 12:20:46</t>
-        </is>
+      <c r="H193" s="1" t="n">
+        <v>44379.5144212963</v>
       </c>
       <c r="I193" t="n">
         <v>1</v>
@@ -14787,10 +14419,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H194" t="inlineStr">
-        <is>
-          <t>2021-07-02 12:20:17</t>
-        </is>
+      <c r="H194" s="1" t="n">
+        <v>44379.51408564814</v>
       </c>
       <c r="I194" t="n">
         <v>14</v>
@@ -14862,10 +14492,8 @@
           <t>4828521014</t>
         </is>
       </c>
-      <c r="H195" t="inlineStr">
-        <is>
-          <t>2021-07-02 12:19:36</t>
-        </is>
+      <c r="H195" s="1" t="n">
+        <v>44379.51361111111</v>
       </c>
       <c r="I195" t="n">
         <v>0</v>
@@ -14934,10 +14562,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H196" t="inlineStr">
-        <is>
-          <t>2021-07-02 12:18:36</t>
-        </is>
+      <c r="H196" s="1" t="n">
+        <v>44379.51291666667</v>
       </c>
       <c r="I196" t="n">
         <v>12</v>
@@ -15014,10 +14640,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H197" t="inlineStr">
-        <is>
-          <t>2021-07-02 12:18:33</t>
-        </is>
+      <c r="H197" s="1" t="n">
+        <v>44379.51288194444</v>
       </c>
       <c r="I197" t="n">
         <v>11</v>
@@ -15093,10 +14717,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H198" t="inlineStr">
-        <is>
-          <t>2021-07-02 12:18:30</t>
-        </is>
+      <c r="H198" s="1" t="n">
+        <v>44379.51284722222</v>
       </c>
       <c r="I198" t="n">
         <v>0</v>
@@ -15164,10 +14786,8 @@
           <t>4828515828</t>
         </is>
       </c>
-      <c r="H199" t="inlineStr">
-        <is>
-          <t>2021-07-02 12:18:27</t>
-        </is>
+      <c r="H199" s="1" t="n">
+        <v>44379.5128125</v>
       </c>
       <c r="I199" t="n">
         <v>1</v>
@@ -15239,10 +14859,8 @@
           <t>4828515588</t>
         </is>
       </c>
-      <c r="H200" t="inlineStr">
-        <is>
-          <t>2021-07-02 12:18:20</t>
-        </is>
+      <c r="H200" s="1" t="n">
+        <v>44379.51273148148</v>
       </c>
       <c r="I200" t="n">
         <v>0</v>
@@ -15315,10 +14933,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H201" t="inlineStr">
-        <is>
-          <t>2021-07-02 12:17:39</t>
-        </is>
+      <c r="H201" s="1" t="n">
+        <v>44379.51225694444</v>
       </c>
       <c r="I201" t="n">
         <v>8</v>
@@ -15405,10 +15021,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H202" t="inlineStr">
-        <is>
-          <t>2021-07-02 12:17:10</t>
-        </is>
+      <c r="H202" s="1" t="n">
+        <v>44379.5119212963</v>
       </c>
       <c r="I202" t="n">
         <v>48</v>
@@ -15484,10 +15098,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H203" t="inlineStr">
-        <is>
-          <t>2021-07-02 12:16:44</t>
-        </is>
+      <c r="H203" s="1" t="n">
+        <v>44379.51162037037</v>
       </c>
       <c r="I203" t="n">
         <v>10</v>
@@ -15563,10 +15175,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H204" t="inlineStr">
-        <is>
-          <t>2021-07-02 12:16:30</t>
-        </is>
+      <c r="H204" s="1" t="n">
+        <v>44379.51145833333</v>
       </c>
       <c r="I204" t="n">
         <v>76</v>
@@ -15649,10 +15259,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H205" t="inlineStr">
-        <is>
-          <t>2021-07-02 12:16:01</t>
-        </is>
+      <c r="H205" s="1" t="n">
+        <v>44379.51112268519</v>
       </c>
       <c r="I205" t="n">
         <v>12</v>
@@ -15724,10 +15332,8 @@
           <t>4828501000</t>
         </is>
       </c>
-      <c r="H206" t="inlineStr">
-        <is>
-          <t>2021-07-02 12:16:00</t>
-        </is>
+      <c r="H206" s="1" t="n">
+        <v>44379.51111111111</v>
       </c>
       <c r="I206" t="n">
         <v>0</v>
@@ -15795,10 +15401,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H207" t="inlineStr">
-        <is>
-          <t>2021-07-02 12:15:49</t>
-        </is>
+      <c r="H207" s="1" t="n">
+        <v>44379.5109837963</v>
       </c>
       <c r="I207" t="n">
         <v>7</v>
@@ -15869,10 +15473,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H208" t="inlineStr">
-        <is>
-          <t>2021-07-02 12:15:47</t>
-        </is>
+      <c r="H208" s="1" t="n">
+        <v>44379.51096064815</v>
       </c>
       <c r="I208" t="n">
         <v>13</v>
@@ -15944,10 +15546,8 @@
           <t>4828489586</t>
         </is>
       </c>
-      <c r="H209" t="inlineStr">
-        <is>
-          <t>2021-07-02 12:15:17</t>
-        </is>
+      <c r="H209" s="1" t="n">
+        <v>44379.51061342593</v>
       </c>
       <c r="I209" t="n">
         <v>1</v>
@@ -16011,10 +15611,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H210" t="inlineStr">
-        <is>
-          <t>2021-07-02 12:15:13</t>
-        </is>
+      <c r="H210" s="1" t="n">
+        <v>44379.51056712963</v>
       </c>
       <c r="I210" t="n">
         <v>0</v>
@@ -16074,10 +15672,8 @@
           <t>4828489228</t>
         </is>
       </c>
-      <c r="H211" t="inlineStr">
-        <is>
-          <t>2021-07-02 12:15:07</t>
-        </is>
+      <c r="H211" s="1" t="n">
+        <v>44379.51049768519</v>
       </c>
       <c r="I211" t="n">
         <v>0</v>
@@ -16145,10 +15741,8 @@
           <t>4828492047</t>
         </is>
       </c>
-      <c r="H212" t="inlineStr">
-        <is>
-          <t>2021-07-02 12:15:01</t>
-        </is>
+      <c r="H212" s="1" t="n">
+        <v>44379.51042824074</v>
       </c>
       <c r="I212" t="n">
         <v>0</v>
@@ -16212,10 +15806,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H213" t="inlineStr">
-        <is>
-          <t>2021-07-02 12:14:37</t>
-        </is>
+      <c r="H213" s="1" t="n">
+        <v>44379.51015046296</v>
       </c>
       <c r="I213" t="n">
         <v>0</v>
@@ -16283,10 +15875,8 @@
           <t>4828491162</t>
         </is>
       </c>
-      <c r="H214" t="inlineStr">
-        <is>
-          <t>2021-07-02 12:14:32</t>
-        </is>
+      <c r="H214" s="1" t="n">
+        <v>44379.51009259259</v>
       </c>
       <c r="I214" t="n">
         <v>2</v>
@@ -16362,10 +15952,8 @@
           <t>4828490896</t>
         </is>
       </c>
-      <c r="H215" t="inlineStr">
-        <is>
-          <t>2021-07-02 12:14:24</t>
-        </is>
+      <c r="H215" s="1" t="n">
+        <v>44379.51</v>
       </c>
       <c r="I215" t="n">
         <v>0</v>
@@ -16437,10 +16025,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H216" t="inlineStr">
-        <is>
-          <t>2021-07-02 12:14:21</t>
-        </is>
+      <c r="H216" s="1" t="n">
+        <v>44379.50996527778</v>
       </c>
       <c r="I216" t="n">
         <v>2</v>
@@ -16515,10 +16101,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H217" t="inlineStr">
-        <is>
-          <t>2021-07-02 12:14:09</t>
-        </is>
+      <c r="H217" s="1" t="n">
+        <v>44379.50982638889</v>
       </c>
       <c r="I217" t="n">
         <v>7</v>
@@ -16587,10 +16171,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H218" t="inlineStr">
-        <is>
-          <t>2021-07-02 12:14:04</t>
-        </is>
+      <c r="H218" s="1" t="n">
+        <v>44379.50976851852</v>
       </c>
       <c r="I218" t="n">
         <v>0</v>
@@ -16659,10 +16241,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H219" t="inlineStr">
-        <is>
-          <t>2021-07-02 12:13:08</t>
-        </is>
+      <c r="H219" s="1" t="n">
+        <v>44379.50912037037</v>
       </c>
       <c r="I219" t="n">
         <v>7</v>
@@ -16738,10 +16318,8 @@
           <t>4828485350</t>
         </is>
       </c>
-      <c r="H220" t="inlineStr">
-        <is>
-          <t>2021-07-02 12:13:08</t>
-        </is>
+      <c r="H220" s="1" t="n">
+        <v>44379.50912037037</v>
       </c>
       <c r="I220" t="n">
         <v>0</v>
@@ -16813,10 +16391,8 @@
           <t>4828474128</t>
         </is>
       </c>
-      <c r="H221" t="inlineStr">
-        <is>
-          <t>2021-07-02 12:12:33</t>
-        </is>
+      <c r="H221" s="1" t="n">
+        <v>44379.50871527778</v>
       </c>
       <c r="I221" t="n">
         <v>1</v>
@@ -16876,10 +16452,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H222" t="inlineStr">
-        <is>
-          <t>2021-07-02 12:12:29</t>
-        </is>
+      <c r="H222" s="1" t="n">
+        <v>44379.50866898148</v>
       </c>
       <c r="I222" t="n">
         <v>0</v>
@@ -16948,10 +16522,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H223" t="inlineStr">
-        <is>
-          <t>2021-07-02 12:12:02</t>
-        </is>
+      <c r="H223" s="1" t="n">
+        <v>44379.50835648148</v>
       </c>
       <c r="I223" t="n">
         <v>100</v>
@@ -17023,10 +16595,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H224" t="inlineStr">
-        <is>
-          <t>2021-07-02 12:11:56</t>
-        </is>
+      <c r="H224" s="1" t="n">
+        <v>44379.50828703704</v>
       </c>
       <c r="I224" t="n">
         <v>384</v>
@@ -17086,10 +16656,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H225" t="inlineStr">
-        <is>
-          <t>2021-07-02 12:11:20</t>
-        </is>
+      <c r="H225" s="1" t="n">
+        <v>44379.50787037037</v>
       </c>
       <c r="I225" t="n">
         <v>2</v>
@@ -17161,10 +16729,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H226" t="inlineStr">
-        <is>
-          <t>2021-07-02 12:11:04</t>
-        </is>
+      <c r="H226" s="1" t="n">
+        <v>44379.50768518518</v>
       </c>
       <c r="I226" t="n">
         <v>0</v>
@@ -17236,10 +16802,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H227" t="inlineStr">
-        <is>
-          <t>2021-07-02 12:10:49</t>
-        </is>
+      <c r="H227" s="1" t="n">
+        <v>44379.50751157408</v>
       </c>
       <c r="I227" t="n">
         <v>0</v>
@@ -17303,10 +16867,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H228" t="inlineStr">
-        <is>
-          <t>2021-07-02 12:10:47</t>
-        </is>
+      <c r="H228" s="1" t="n">
+        <v>44379.50748842592</v>
       </c>
       <c r="I228" t="n">
         <v>4</v>
@@ -17382,10 +16944,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H229" t="inlineStr">
-        <is>
-          <t>2021-07-02 12:10:32</t>
-        </is>
+      <c r="H229" s="1" t="n">
+        <v>44379.50731481481</v>
       </c>
       <c r="I229" t="n">
         <v>0</v>
@@ -17461,10 +17021,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H230" t="inlineStr">
-        <is>
-          <t>2021-07-02 12:10:28</t>
-        </is>
+      <c r="H230" s="1" t="n">
+        <v>44379.50726851852</v>
       </c>
       <c r="I230" t="n">
         <v>1</v>
@@ -17532,10 +17090,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H231" t="inlineStr">
-        <is>
-          <t>2021-07-02 12:10:13</t>
-        </is>
+      <c r="H231" s="1" t="n">
+        <v>44379.50709490741</v>
       </c>
       <c r="I231" t="n">
         <v>0</v>
@@ -17595,10 +17151,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H232" t="inlineStr">
-        <is>
-          <t>2021-07-02 12:10:01</t>
-        </is>
+      <c r="H232" s="1" t="n">
+        <v>44379.50695601852</v>
       </c>
       <c r="I232" t="n">
         <v>96</v>
@@ -17674,10 +17228,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H233" t="inlineStr">
-        <is>
-          <t>2021-07-02 12:09:42</t>
-        </is>
+      <c r="H233" s="1" t="n">
+        <v>44379.50673611111</v>
       </c>
       <c r="I233" t="n">
         <v>1</v>
@@ -17753,10 +17305,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H234" t="inlineStr">
-        <is>
-          <t>2021-07-02 12:09:39</t>
-        </is>
+      <c r="H234" s="1" t="n">
+        <v>44379.50670138889</v>
       </c>
       <c r="I234" t="n">
         <v>10</v>
@@ -17828,10 +17378,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H235" t="inlineStr">
-        <is>
-          <t>2021-07-02 12:09:32</t>
-        </is>
+      <c r="H235" s="1" t="n">
+        <v>44379.50662037037</v>
       </c>
       <c r="I235" t="n">
         <v>4</v>
@@ -17910,10 +17458,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H236" t="inlineStr">
-        <is>
-          <t>2021-07-02 12:09:28</t>
-        </is>
+      <c r="H236" s="1" t="n">
+        <v>44379.50657407408</v>
       </c>
       <c r="I236" t="n">
         <v>0</v>
@@ -17977,10 +17523,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H237" t="inlineStr">
-        <is>
-          <t>2021-07-02 12:09:27</t>
-        </is>
+      <c r="H237" s="1" t="n">
+        <v>44379.5065625</v>
       </c>
       <c r="I237" t="n">
         <v>61</v>
@@ -18044,10 +17588,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H238" t="inlineStr">
-        <is>
-          <t>2021-07-02 12:09:11</t>
-        </is>
+      <c r="H238" s="1" t="n">
+        <v>44379.50637731481</v>
       </c>
       <c r="I238" t="n">
         <v>1</v>
@@ -18119,10 +17661,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H239" t="inlineStr">
-        <is>
-          <t>2021-07-02 12:09:10</t>
-        </is>
+      <c r="H239" s="1" t="n">
+        <v>44379.50636574074</v>
       </c>
       <c r="I239" t="n">
         <v>5</v>
@@ -18198,10 +17738,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H240" t="inlineStr">
-        <is>
-          <t>2021-07-02 12:08:57</t>
-        </is>
+      <c r="H240" s="1" t="n">
+        <v>44379.50621527778</v>
       </c>
       <c r="I240" t="n">
         <v>3</v>
@@ -18269,10 +17807,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H241" t="inlineStr">
-        <is>
-          <t>2021-07-02 12:08:50</t>
-        </is>
+      <c r="H241" s="1" t="n">
+        <v>44379.50613425926</v>
       </c>
       <c r="I241" t="n">
         <v>0</v>
@@ -18348,10 +17884,8 @@
           <t>4828454291</t>
         </is>
       </c>
-      <c r="H242" t="inlineStr">
-        <is>
-          <t>2021-07-02 12:08:49</t>
-        </is>
+      <c r="H242" s="1" t="n">
+        <v>44379.50612268518</v>
       </c>
       <c r="I242" t="n">
         <v>0</v>
@@ -18419,10 +17953,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H243" t="inlineStr">
-        <is>
-          <t>2021-07-02 12:08:43</t>
-        </is>
+      <c r="H243" s="1" t="n">
+        <v>44379.50605324074</v>
       </c>
       <c r="I243" t="n">
         <v>1</v>
@@ -18490,10 +18022,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H244" t="inlineStr">
-        <is>
-          <t>2021-07-02 12:08:31</t>
-        </is>
+      <c r="H244" s="1" t="n">
+        <v>44379.50591435185</v>
       </c>
       <c r="I244" t="n">
         <v>0</v>
@@ -18565,10 +18095,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H245" t="inlineStr">
-        <is>
-          <t>2021-07-02 12:08:26</t>
-        </is>
+      <c r="H245" s="1" t="n">
+        <v>44379.50585648148</v>
       </c>
       <c r="I245" t="n">
         <v>0</v>
@@ -18641,10 +18169,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H246" t="inlineStr">
-        <is>
-          <t>2021-07-02 12:08:25</t>
-        </is>
+      <c r="H246" s="1" t="n">
+        <v>44379.50584490741</v>
       </c>
       <c r="I246" t="n">
         <v>1</v>
@@ -18720,10 +18246,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H247" t="inlineStr">
-        <is>
-          <t>2021-07-02 12:08:14</t>
-        </is>
+      <c r="H247" s="1" t="n">
+        <v>44379.50571759259</v>
       </c>
       <c r="I247" t="n">
         <v>1</v>
@@ -18787,10 +18311,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H248" t="inlineStr">
-        <is>
-          <t>2021-07-02 12:08:13</t>
-        </is>
+      <c r="H248" s="1" t="n">
+        <v>44379.50570601852</v>
       </c>
       <c r="I248" t="n">
         <v>0</v>
@@ -18862,10 +18384,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H249" t="inlineStr">
-        <is>
-          <t>2021-07-02 12:08:13</t>
-        </is>
+      <c r="H249" s="1" t="n">
+        <v>44379.50570601852</v>
       </c>
       <c r="I249" t="n">
         <v>0</v>
@@ -18929,10 +18449,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H250" t="inlineStr">
-        <is>
-          <t>2021-07-02 12:08:12</t>
-        </is>
+      <c r="H250" s="1" t="n">
+        <v>44379.50569444444</v>
       </c>
       <c r="I250" t="n">
         <v>0</v>
@@ -19008,10 +18526,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H251" t="inlineStr">
-        <is>
-          <t>2021-07-02 12:08:02</t>
-        </is>
+      <c r="H251" s="1" t="n">
+        <v>44379.50557870371</v>
       </c>
       <c r="I251" t="n">
         <v>1</v>
@@ -19079,10 +18595,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H252" t="inlineStr">
-        <is>
-          <t>2021-07-02 12:07:57</t>
-        </is>
+      <c r="H252" s="1" t="n">
+        <v>44379.50552083334</v>
       </c>
       <c r="I252" t="n">
         <v>0</v>
@@ -19154,10 +18668,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H253" t="inlineStr">
-        <is>
-          <t>2021-07-02 12:07:54</t>
-        </is>
+      <c r="H253" s="1" t="n">
+        <v>44379.50548611111</v>
       </c>
       <c r="I253" t="n">
         <v>0</v>
@@ -19221,10 +18733,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H254" t="inlineStr">
-        <is>
-          <t>2021-07-02 12:07:53</t>
-        </is>
+      <c r="H254" s="1" t="n">
+        <v>44379.50547453704</v>
       </c>
       <c r="I254" t="n">
         <v>0</v>
@@ -19292,10 +18802,8 @@
           <t>4828452446</t>
         </is>
       </c>
-      <c r="H255" t="inlineStr">
-        <is>
-          <t>2021-07-02 12:07:48</t>
-        </is>
+      <c r="H255" s="1" t="n">
+        <v>44379.50541666667</v>
       </c>
       <c r="I255" t="n">
         <v>5</v>
@@ -19359,10 +18867,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H256" t="inlineStr">
-        <is>
-          <t>2021-07-02 12:07:43</t>
-        </is>
+      <c r="H256" s="1" t="n">
+        <v>44379.5053587963</v>
       </c>
       <c r="I256" t="n">
         <v>1</v>
@@ -19430,10 +18936,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H257" t="inlineStr">
-        <is>
-          <t>2021-07-02 12:07:40</t>
-        </is>
+      <c r="H257" s="1" t="n">
+        <v>44379.50532407407</v>
       </c>
       <c r="I257" t="n">
         <v>1</v>
@@ -19509,10 +19013,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H258" t="inlineStr">
-        <is>
-          <t>2021-07-02 12:07:37</t>
-        </is>
+      <c r="H258" s="1" t="n">
+        <v>44379.50528935185</v>
       </c>
       <c r="I258" t="n">
         <v>19</v>
@@ -19580,10 +19082,8 @@
           <t>4828452020</t>
         </is>
       </c>
-      <c r="H259" t="inlineStr">
-        <is>
-          <t>2021-07-02 12:07:35</t>
-        </is>
+      <c r="H259" s="1" t="n">
+        <v>44379.50526620371</v>
       </c>
       <c r="I259" t="n">
         <v>3</v>
@@ -19661,10 +19161,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H260" t="inlineStr">
-        <is>
-          <t>2021-07-02 12:07:30</t>
-        </is>
+      <c r="H260" s="1" t="n">
+        <v>44379.50520833334</v>
       </c>
       <c r="I260" t="n">
         <v>0</v>
@@ -19724,10 +19222,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H261" t="inlineStr">
-        <is>
-          <t>2021-07-02 12:07:29</t>
-        </is>
+      <c r="H261" s="1" t="n">
+        <v>44379.50519675926</v>
       </c>
       <c r="I261" t="n">
         <v>0</v>
@@ -19791,10 +19287,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H262" t="inlineStr">
-        <is>
-          <t>2021-07-02 12:07:21</t>
-        </is>
+      <c r="H262" s="1" t="n">
+        <v>44379.50510416667</v>
       </c>
       <c r="I262" t="n">
         <v>0</v>
@@ -19858,10 +19352,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H263" t="inlineStr">
-        <is>
-          <t>2021-07-02 12:07:09</t>
-        </is>
+      <c r="H263" s="1" t="n">
+        <v>44379.50496527777</v>
       </c>
       <c r="I263" t="n">
         <v>14</v>
@@ -19929,10 +19421,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H264" t="inlineStr">
-        <is>
-          <t>2021-07-02 12:07:07</t>
-        </is>
+      <c r="H264" s="1" t="n">
+        <v>44379.50494212963</v>
       </c>
       <c r="I264" t="n">
         <v>0</v>
@@ -19996,10 +19486,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H265" t="inlineStr">
-        <is>
-          <t>2021-07-02 12:07:07</t>
-        </is>
+      <c r="H265" s="1" t="n">
+        <v>44379.50494212963</v>
       </c>
       <c r="I265" t="n">
         <v>6</v>
@@ -20071,10 +19559,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H266" t="inlineStr">
-        <is>
-          <t>2021-07-02 12:06:59</t>
-        </is>
+      <c r="H266" s="1" t="n">
+        <v>44379.50484953704</v>
       </c>
       <c r="I266" t="n">
         <v>3</v>
@@ -20138,10 +19624,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H267" t="inlineStr">
-        <is>
-          <t>2021-07-02 12:06:53</t>
-        </is>
+      <c r="H267" s="1" t="n">
+        <v>44379.50478009259</v>
       </c>
       <c r="I267" t="n">
         <v>0</v>
@@ -20205,10 +19689,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H268" t="inlineStr">
-        <is>
-          <t>2021-07-02 12:06:50</t>
-        </is>
+      <c r="H268" s="1" t="n">
+        <v>44379.50474537037</v>
       </c>
       <c r="I268" t="n">
         <v>0</v>
@@ -20280,10 +19762,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H269" t="inlineStr">
-        <is>
-          <t>2021-07-02 12:06:49</t>
-        </is>
+      <c r="H269" s="1" t="n">
+        <v>44379.5047337963</v>
       </c>
       <c r="I269" t="n">
         <v>7</v>
@@ -20359,10 +19839,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H270" t="inlineStr">
-        <is>
-          <t>2021-07-02 12:06:48</t>
-        </is>
+      <c r="H270" s="1" t="n">
+        <v>44379.50472222222</v>
       </c>
       <c r="I270" t="n">
         <v>3</v>
@@ -20430,10 +19908,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H271" t="inlineStr">
-        <is>
-          <t>2021-07-02 12:06:43</t>
-        </is>
+      <c r="H271" s="1" t="n">
+        <v>44379.50466435185</v>
       </c>
       <c r="I271" t="n">
         <v>2</v>
@@ -20509,10 +19985,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H272" t="inlineStr">
-        <is>
-          <t>2021-07-02 12:06:39</t>
-        </is>
+      <c r="H272" s="1" t="n">
+        <v>44379.50461805556</v>
       </c>
       <c r="I272" t="n">
         <v>0</v>
@@ -20580,10 +20054,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H273" t="inlineStr">
-        <is>
-          <t>2021-07-02 12:06:39</t>
-        </is>
+      <c r="H273" s="1" t="n">
+        <v>44379.50461805556</v>
       </c>
       <c r="I273" t="n">
         <v>0</v>
@@ -20647,10 +20119,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H274" t="inlineStr">
-        <is>
-          <t>2021-07-02 12:06:30</t>
-        </is>
+      <c r="H274" s="1" t="n">
+        <v>44379.50451388889</v>
       </c>
       <c r="I274" t="n">
         <v>1</v>
@@ -20718,10 +20188,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H275" t="inlineStr">
-        <is>
-          <t>2021-07-02 12:06:29</t>
-        </is>
+      <c r="H275" s="1" t="n">
+        <v>44379.50450231481</v>
       </c>
       <c r="I275" t="n">
         <v>2</v>
@@ -20797,10 +20265,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H276" t="inlineStr">
-        <is>
-          <t>2021-07-02 12:06:19</t>
-        </is>
+      <c r="H276" s="1" t="n">
+        <v>44379.50438657407</v>
       </c>
       <c r="I276" t="n">
         <v>0</v>
@@ -20872,10 +20338,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H277" t="inlineStr">
-        <is>
-          <t>2021-07-02 12:06:14</t>
-        </is>
+      <c r="H277" s="1" t="n">
+        <v>44379.5043287037</v>
       </c>
       <c r="I277" t="n">
         <v>0</v>
@@ -20939,10 +20403,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H278" t="inlineStr">
-        <is>
-          <t>2021-07-02 12:06:07</t>
-        </is>
+      <c r="H278" s="1" t="n">
+        <v>44379.50424768519</v>
       </c>
       <c r="I278" t="n">
         <v>16</v>
@@ -21018,10 +20480,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H279" t="inlineStr">
-        <is>
-          <t>2021-07-02 12:06:03</t>
-        </is>
+      <c r="H279" s="1" t="n">
+        <v>44379.50420138889</v>
       </c>
       <c r="I279" t="n">
         <v>4</v>
@@ -21097,10 +20557,8 @@
           <t>4828434151</t>
         </is>
       </c>
-      <c r="H280" t="inlineStr">
-        <is>
-          <t>2021-07-02 12:06:00</t>
-        </is>
+      <c r="H280" s="1" t="n">
+        <v>44379.50416666667</v>
       </c>
       <c r="I280" t="n">
         <v>0</v>
@@ -21176,10 +20634,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H281" t="inlineStr">
-        <is>
-          <t>2021-07-02 12:05:59</t>
-        </is>
+      <c r="H281" s="1" t="n">
+        <v>44379.5041550926</v>
       </c>
       <c r="I281" t="n">
         <v>0</v>
@@ -21247,10 +20703,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H282" t="inlineStr">
-        <is>
-          <t>2021-07-02 12:05:56</t>
-        </is>
+      <c r="H282" s="1" t="n">
+        <v>44379.50412037037</v>
       </c>
       <c r="I282" t="n">
         <v>7</v>
@@ -21322,10 +20776,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H283" t="inlineStr">
-        <is>
-          <t>2021-07-02 12:05:53</t>
-        </is>
+      <c r="H283" s="1" t="n">
+        <v>44379.50408564815</v>
       </c>
       <c r="I283" t="n">
         <v>8</v>
@@ -21393,10 +20845,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H284" t="inlineStr">
-        <is>
-          <t>2021-07-02 12:05:53</t>
-        </is>
+      <c r="H284" s="1" t="n">
+        <v>44379.50408564815</v>
       </c>
       <c r="I284" t="n">
         <v>17</v>
@@ -21472,10 +20922,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H285" t="inlineStr">
-        <is>
-          <t>2021-07-02 12:05:51</t>
-        </is>
+      <c r="H285" s="1" t="n">
+        <v>44379.5040625</v>
       </c>
       <c r="I285" t="n">
         <v>0</v>
@@ -21547,10 +20995,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H286" t="inlineStr">
-        <is>
-          <t>2021-07-02 12:05:48</t>
-        </is>
+      <c r="H286" s="1" t="n">
+        <v>44379.50402777778</v>
       </c>
       <c r="I286" t="n">
         <v>1</v>
@@ -21618,10 +21064,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H287" t="inlineStr">
-        <is>
-          <t>2021-07-02 12:05:44</t>
-        </is>
+      <c r="H287" s="1" t="n">
+        <v>44379.50398148148</v>
       </c>
       <c r="I287" t="n">
         <v>1</v>
@@ -21697,10 +21141,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H288" t="inlineStr">
-        <is>
-          <t>2021-07-02 12:05:44</t>
-        </is>
+      <c r="H288" s="1" t="n">
+        <v>44379.50398148148</v>
       </c>
       <c r="I288" t="n">
         <v>0</v>
@@ -21776,10 +21218,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H289" t="inlineStr">
-        <is>
-          <t>2021-07-02 12:05:43</t>
-        </is>
+      <c r="H289" s="1" t="n">
+        <v>44379.5039699074</v>
       </c>
       <c r="I289" t="n">
         <v>2</v>
@@ -21847,10 +21287,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H290" t="inlineStr">
-        <is>
-          <t>2021-07-02 12:05:42</t>
-        </is>
+      <c r="H290" s="1" t="n">
+        <v>44379.50395833333</v>
       </c>
       <c r="I290" t="n">
         <v>0</v>
@@ -21914,10 +21352,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H291" t="inlineStr">
-        <is>
-          <t>2021-07-02 12:05:32</t>
-        </is>
+      <c r="H291" s="1" t="n">
+        <v>44379.5038425926</v>
       </c>
       <c r="I291" t="n">
         <v>17</v>
@@ -21989,10 +21425,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H292" t="inlineStr">
-        <is>
-          <t>2021-07-02 12:05:32</t>
-        </is>
+      <c r="H292" s="1" t="n">
+        <v>44379.5038425926</v>
       </c>
       <c r="I292" t="n">
         <v>0</v>
@@ -22068,10 +21502,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H293" t="inlineStr">
-        <is>
-          <t>2021-07-02 12:05:26</t>
-        </is>
+      <c r="H293" s="1" t="n">
+        <v>44379.50377314815</v>
       </c>
       <c r="I293" t="n">
         <v>1</v>
@@ -22147,10 +21579,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H294" t="inlineStr">
-        <is>
-          <t>2021-07-02 12:05:24</t>
-        </is>
+      <c r="H294" s="1" t="n">
+        <v>44379.50375</v>
       </c>
       <c r="I294" t="n">
         <v>5</v>
@@ -22214,10 +21644,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H295" t="inlineStr">
-        <is>
-          <t>2021-07-02 12:05:23</t>
-        </is>
+      <c r="H295" s="1" t="n">
+        <v>44379.50373842593</v>
       </c>
       <c r="I295" t="n">
         <v>1</v>
@@ -22290,10 +21718,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H296" t="inlineStr">
-        <is>
-          <t>2021-07-02 12:05:21</t>
-        </is>
+      <c r="H296" s="1" t="n">
+        <v>44379.50371527778</v>
       </c>
       <c r="I296" t="n">
         <v>0</v>
@@ -22361,10 +21787,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H297" t="inlineStr">
-        <is>
-          <t>2021-07-02 12:05:16</t>
-        </is>
+      <c r="H297" s="1" t="n">
+        <v>44379.5036574074</v>
       </c>
       <c r="I297" t="n">
         <v>3</v>
@@ -22428,10 +21852,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H298" t="inlineStr">
-        <is>
-          <t>2021-07-02 12:05:03</t>
-        </is>
+      <c r="H298" s="1" t="n">
+        <v>44379.50350694444</v>
       </c>
       <c r="I298" t="n">
         <v>0</v>
@@ -22499,10 +21921,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H299" t="inlineStr">
-        <is>
-          <t>2021-07-02 12:05:00</t>
-        </is>
+      <c r="H299" s="1" t="n">
+        <v>44379.50347222222</v>
       </c>
       <c r="I299" t="n">
         <v>3</v>
@@ -22578,10 +21998,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H300" t="inlineStr">
-        <is>
-          <t>2021-07-02 12:04:59</t>
-        </is>
+      <c r="H300" s="1" t="n">
+        <v>44379.50346064815</v>
       </c>
       <c r="I300" t="n">
         <v>0</v>
@@ -22657,10 +22075,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H301" t="inlineStr">
-        <is>
-          <t>2021-07-02 12:04:57</t>
-        </is>
+      <c r="H301" s="1" t="n">
+        <v>44379.5034375</v>
       </c>
       <c r="I301" t="n">
         <v>1</v>
@@ -22728,10 +22144,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H302" t="inlineStr">
-        <is>
-          <t>2021-07-02 12:04:49</t>
-        </is>
+      <c r="H302" s="1" t="n">
+        <v>44379.50334490741</v>
       </c>
       <c r="I302" t="n">
         <v>1</v>
@@ -22803,10 +22217,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H303" t="inlineStr">
-        <is>
-          <t>2021-07-02 12:04:49</t>
-        </is>
+      <c r="H303" s="1" t="n">
+        <v>44379.50334490741</v>
       </c>
       <c r="I303" t="n">
         <v>3</v>
@@ -22879,10 +22291,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H304" t="inlineStr">
-        <is>
-          <t>2021-07-02 12:04:48</t>
-        </is>
+      <c r="H304" s="1" t="n">
+        <v>44379.50333333333</v>
       </c>
       <c r="I304" t="n">
         <v>3</v>
@@ -22954,10 +22364,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H305" t="inlineStr">
-        <is>
-          <t>2021-07-02 12:04:37</t>
-        </is>
+      <c r="H305" s="1" t="n">
+        <v>44379.50320601852</v>
       </c>
       <c r="I305" t="n">
         <v>21</v>
@@ -23025,10 +22433,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H306" t="inlineStr">
-        <is>
-          <t>2021-07-02 12:04:35</t>
-        </is>
+      <c r="H306" s="1" t="n">
+        <v>44379.50318287037</v>
       </c>
       <c r="I306" t="n">
         <v>0</v>
@@ -23104,10 +22510,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H307" t="inlineStr">
-        <is>
-          <t>2021-07-02 12:04:33</t>
-        </is>
+      <c r="H307" s="1" t="n">
+        <v>44379.50315972222</v>
       </c>
       <c r="I307" t="n">
         <v>55</v>
@@ -23183,10 +22587,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H308" t="inlineStr">
-        <is>
-          <t>2021-07-02 12:04:26</t>
-        </is>
+      <c r="H308" s="1" t="n">
+        <v>44379.5030787037</v>
       </c>
       <c r="I308" t="n">
         <v>4</v>
@@ -23262,10 +22664,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H309" t="inlineStr">
-        <is>
-          <t>2021-07-02 12:04:26</t>
-        </is>
+      <c r="H309" s="1" t="n">
+        <v>44379.5030787037</v>
       </c>
       <c r="I309" t="n">
         <v>5</v>
@@ -23333,10 +22733,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H310" t="inlineStr">
-        <is>
-          <t>2021-07-02 12:04:25</t>
-        </is>
+      <c r="H310" s="1" t="n">
+        <v>44379.50306712963</v>
       </c>
       <c r="I310" t="n">
         <v>1</v>
@@ -23404,10 +22802,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H311" t="inlineStr">
-        <is>
-          <t>2021-07-02 12:04:25</t>
-        </is>
+      <c r="H311" s="1" t="n">
+        <v>44379.50306712963</v>
       </c>
       <c r="I311" t="n">
         <v>2</v>
@@ -23483,10 +22879,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H312" t="inlineStr">
-        <is>
-          <t>2021-07-02 12:04:22</t>
-        </is>
+      <c r="H312" s="1" t="n">
+        <v>44379.50303240741</v>
       </c>
       <c r="I312" t="n">
         <v>61</v>
@@ -23554,10 +22948,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H313" t="inlineStr">
-        <is>
-          <t>2021-07-02 12:04:19</t>
-        </is>
+      <c r="H313" s="1" t="n">
+        <v>44379.50299768519</v>
       </c>
       <c r="I313" t="n">
         <v>1</v>
@@ -23625,10 +23017,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H314" t="inlineStr">
-        <is>
-          <t>2021-07-02 12:04:18</t>
-        </is>
+      <c r="H314" s="1" t="n">
+        <v>44379.50298611111</v>
       </c>
       <c r="I314" t="n">
         <v>3</v>
@@ -23700,10 +23090,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H315" t="inlineStr">
-        <is>
-          <t>2021-07-02 12:04:16</t>
-        </is>
+      <c r="H315" s="1" t="n">
+        <v>44379.50296296296</v>
       </c>
       <c r="I315" t="n">
         <v>6</v>
@@ -23767,10 +23155,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H316" t="inlineStr">
-        <is>
-          <t>2021-07-02 12:04:14</t>
-        </is>
+      <c r="H316" s="1" t="n">
+        <v>44379.50293981482</v>
       </c>
       <c r="I316" t="n">
         <v>16</v>
@@ -23834,10 +23220,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H317" t="inlineStr">
-        <is>
-          <t>2021-07-02 12:04:11</t>
-        </is>
+      <c r="H317" s="1" t="n">
+        <v>44379.5029050926</v>
       </c>
       <c r="I317" t="n">
         <v>4</v>
@@ -23905,10 +23289,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H318" t="inlineStr">
-        <is>
-          <t>2021-07-02 12:04:08</t>
-        </is>
+      <c r="H318" s="1" t="n">
+        <v>44379.50287037037</v>
       </c>
       <c r="I318" t="n">
         <v>15</v>
@@ -23972,10 +23354,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H319" t="inlineStr">
-        <is>
-          <t>2021-07-02 12:04:08</t>
-        </is>
+      <c r="H319" s="1" t="n">
+        <v>44379.50287037037</v>
       </c>
       <c r="I319" t="n">
         <v>6</v>
@@ -24043,10 +23423,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H320" t="inlineStr">
-        <is>
-          <t>2021-07-02 12:04:07</t>
-        </is>
+      <c r="H320" s="1" t="n">
+        <v>44379.5028587963</v>
       </c>
       <c r="I320" t="n">
         <v>4</v>
@@ -24118,10 +23496,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H321" t="inlineStr">
-        <is>
-          <t>2021-07-02 12:04:06</t>
-        </is>
+      <c r="H321" s="1" t="n">
+        <v>44379.50284722223</v>
       </c>
       <c r="I321" t="n">
         <v>7</v>
@@ -24189,10 +23565,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H322" t="inlineStr">
-        <is>
-          <t>2021-07-02 12:04:02</t>
-        </is>
+      <c r="H322" s="1" t="n">
+        <v>44379.50280092593</v>
       </c>
       <c r="I322" t="n">
         <v>9</v>
@@ -24264,10 +23638,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H323" t="inlineStr">
-        <is>
-          <t>2021-07-02 12:03:59</t>
-        </is>
+      <c r="H323" s="1" t="n">
+        <v>44379.5027662037</v>
       </c>
       <c r="I323" t="n">
         <v>5</v>
@@ -24331,10 +23703,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H324" t="inlineStr">
-        <is>
-          <t>2021-07-02 12:03:56</t>
-        </is>
+      <c r="H324" s="1" t="n">
+        <v>44379.50273148148</v>
       </c>
       <c r="I324" t="n">
         <v>3</v>
@@ -24398,10 +23768,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H325" t="inlineStr">
-        <is>
-          <t>2021-07-02 12:03:56</t>
-        </is>
+      <c r="H325" s="1" t="n">
+        <v>44379.50273148148</v>
       </c>
       <c r="I325" t="n">
         <v>6</v>
@@ -24469,10 +23837,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H326" t="inlineStr">
-        <is>
-          <t>2021-07-02 12:03:53</t>
-        </is>
+      <c r="H326" s="1" t="n">
+        <v>44379.50269675926</v>
       </c>
       <c r="I326" t="n">
         <v>6</v>
@@ -24549,10 +23915,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H327" t="inlineStr">
-        <is>
-          <t>2021-07-02 12:03:52</t>
-        </is>
+      <c r="H327" s="1" t="n">
+        <v>44379.50268518519</v>
       </c>
       <c r="I327" t="n">
         <v>4</v>
@@ -24616,10 +23980,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H328" t="inlineStr">
-        <is>
-          <t>2021-07-02 12:03:49</t>
-        </is>
+      <c r="H328" s="1" t="n">
+        <v>44379.50265046296</v>
       </c>
       <c r="I328" t="n">
         <v>3</v>
@@ -24683,10 +24045,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H329" t="inlineStr">
-        <is>
-          <t>2021-07-02 12:03:47</t>
-        </is>
+      <c r="H329" s="1" t="n">
+        <v>44379.50262731482</v>
       </c>
       <c r="I329" t="n">
         <v>349</v>
@@ -24754,10 +24114,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H330" t="inlineStr">
-        <is>
-          <t>2021-07-02 12:03:46</t>
-        </is>
+      <c r="H330" s="1" t="n">
+        <v>44379.50261574074</v>
       </c>
       <c r="I330" t="n">
         <v>34</v>
